--- a/data/CS1_2/case18/case18_2050.xlsx
+++ b/data/CS1_2/case18/case18_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063390A-D7FA-4FEC-A368-D56A1307170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90823369-E96F-4137-931D-838CB7766F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="33" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40107,7 +40107,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50286,7 +50286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C08F29-18B6-4643-922D-D0ECDBA3CB54}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
@@ -50696,7 +50696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323AB72D-8D18-455B-A86D-0B0C9E214F9E}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
@@ -51345,17 +51345,17 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>VLOOKUP($A2,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>2.5</v>
       </c>
-      <c r="C2">
-        <f>B2*5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <f>B2*4</f>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
         <f>C2*0.5</f>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>0.95</v>
@@ -51374,17 +51374,17 @@
       <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>VLOOKUP($A3,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>2.5</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">B3*5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C5" si="0">B3*4</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D5" si="1">C3*0.5</f>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>0.95</v>
@@ -51403,17 +51403,17 @@
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>VLOOKUP($A4,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>2.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>0.95</v>
@@ -51432,17 +51432,17 @@
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>VLOOKUP($A5,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>2.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>0.95</v>
@@ -51459,6 +51459,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/CS1_2/case18/case18_2050.xlsx
+++ b/data/CS1_2/case18/case18_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90823369-E96F-4137-931D-838CB7766F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F31F8-407D-4D1E-953F-B8CD728AA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="1635" windowWidth="21600" windowHeight="12735" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50286,7 +50286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C08F29-18B6-4643-922D-D0ECDBA3CB54}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
@@ -51625,7 +51625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE9875A-D5F3-4037-ABBA-BC5732E3F827}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
